--- a/biology/Botanique/Liste_d'espèces_du_genre_Rosa/Liste_d'espèces_du_genre_Rosa.xlsx
+++ b/biology/Botanique/Liste_d'espèces_du_genre_Rosa/Liste_d'espèces_du_genre_Rosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_du_genre_Rosa</t>
+          <t>Liste_d'espèces_du_genre_Rosa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le nombre réel d'espèces de rosiers fait l'objet de discussions. Certaines espèces sont si voisines qu'elles pourraient aisément être considérées comme des variations d'une seule espèce, tandis que d'autres montrent suffisamment de variation pour mériter d'être classées séparément. Généralement les listes d'espèces de rosiers recensent entre 100 et 150 espèces, la plupart des botanistes estimant que le nombre réel est probablement plus proche de la borne inférieure de cet intervalle.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_du_genre_Rosa</t>
+          <t>Liste_d'espèces_du_genre_Rosa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,21 +525,172 @@
           <t>Sous-genres et sections</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Rosa se subdivise en quatre sous-genres inégaux :
-Sous-genre Eurosa
-Eurosa (le sous-genre type) qui regroupe la majorité des espèces de rosiers. Ce sous-genre se subdivise en 11 sections :
-Section Banksianae
-Banksianae, rosiers à fleurs blanches et jaunes de Chine,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_du_genre_Rosa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_du_genre_Rosa</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Sous-genres et sections</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-genre Eurosa</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Eurosa (le sous-genre type) qui regroupe la majorité des espèces de rosiers. Ce sous-genre se subdivise en 11 sections :</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_du_genre_Rosa</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_du_genre_Rosa</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Sous-genres et sections</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-genre Eurosa</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Section Banksianae</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Banksianae, rosiers à fleurs blanches et jaunes de Chine,
 Rosa banksiae Aiton, le rosier de Lady Banks,
-Rosa cymosa Tratt.
-Section Bracteatae
-Bracteatae, deux espèces asiatiques, une de Chine et une d'Inde,
+Rosa cymosa Tratt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_du_genre_Rosa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_du_genre_Rosa</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Sous-genres et sections</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-genre Eurosa</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Section Bracteatae</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bracteatae, deux espèces asiatiques, une de Chine et une d'Inde,
 Rosa bracteata  J. C. Wendl., le rosier de Macartney,
-Rosa clinophylla (syn. Rosa involucrata).
-Section Caninae
-Caninae, espèces à fleurs roses et blanches d'Asie, d'Europe et d'Afrique du Nord,
+Rosa clinophylla (syn. Rosa involucrata).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_du_genre_Rosa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_du_genre_Rosa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sous-genres et sections</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous-genre Eurosa</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Section Caninae</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Caninae, espèces à fleurs roses et blanches d'Asie, d'Europe et d'Afrique du Nord,
 Rosa agrestis Savi, le rosier des haies,
 Rosa canina L., l'églantier ou rosier des chiens,
 Rosa corymbifera Borkh.,
@@ -550,22 +713,136 @@
 Rosa sherardii Davies (syn. R. omissa),
 Rosa sicula Tratt. (syn. R. seraphinii),
 Rosa tomentosa Sm. (syn. R. cuspidata),
-Rosa villosa L. (synonyme Rosa pomifera Herrm.), le rosier velu ou rosier pomme.
-Section Carolinae
-Carolinae, rosiers à fleurs blanches, roses et rose brillant d'Amérique du Nord,
+Rosa villosa L. (synonyme Rosa pomifera Herrm.), le rosier velu ou rosier pomme.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_du_genre_Rosa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_du_genre_Rosa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sous-genres et sections</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-genre Eurosa</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Section Carolinae</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Carolinae, rosiers à fleurs blanches, roses et rose brillant d'Amérique du Nord,
 Rosa carolina L., le rosier de Caroline,
 Rosa foliolosa Nutt. ex Torr. &amp; A. Gray
 Rosa lucida Ehrh, voir Rosa virginiana
 Rosa nitida Willd., le rosier brillant,
 Rosa palustris Marshall, le rosier des marais
-Rosa virginiana Mill. (synonyme Rosa lucida Ehrh.), le rosier de Virginie.
-Section Chinenses
-Chinenses, rosiers à fleurs blanches, roses, jaunes, rouges et multicolores de Chine et de Birmanie,
+Rosa virginiana Mill. (synonyme Rosa lucida Ehrh.), le rosier de Virginie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_du_genre_Rosa</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_du_genre_Rosa</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Sous-genres et sections</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sous-genre Eurosa</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Section Chinenses</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Chinenses, rosiers à fleurs blanches, roses, jaunes, rouges et multicolores de Chine et de Birmanie,
 Rosa chinensis var spontanea - Rosier de Chine
 Rosa gigantea Collett ex Crep. (voir Rosa ×odorata nothovar. gigantea)
-Rosa ×odorata nothovar. gigantea (Collett ex Crép.) Rehder &amp; E.H.Wilson, (Syn. Rosa gigantea).
-Section Cinnamomae
-Cinnamomeae, les rosiers « cannelle », rosiers à fleurs blanches, roses, lilas, myrtille et rouges présents dans toute l'aire de diffusion du genre sauf l'Afrique du Nord,
+Rosa ×odorata nothovar. gigantea (Collett ex Crép.) Rehder &amp; E.H.Wilson, (Syn. Rosa gigantea).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_du_genre_Rosa</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_du_genre_Rosa</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Sous-genres et sections</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sous-genre Eurosa</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Section Cinnamomae</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Cinnamomeae, les rosiers « cannelle », rosiers à fleurs blanches, roses, lilas, myrtille et rouges présents dans toute l'aire de diffusion du genre sauf l'Afrique du Nord,
 Rosa acicularis Lindl., le rosier aciculaire, rosier arctique,
 Rosa alpina L., voir Rosa pendulina,
 Rosa arkansana Porter (synonymes : Rosa pratincola Greene, Rosa suffulta Greene), le rosier de l'Arkansas,
@@ -595,26 +872,178 @@
 Rosa suffulta Greene, voir Rosa arkansana,
 Rosa webbiana,
 Rosa sweginzowii,
-Rosa woodsii Lindl., le rosier de Woods.
-Section Gallicanae
-Gallicanae, rosiers à fleurs rose à pourpre ou panachées d'Asie occidentale et d'Europe,
+Rosa woodsii Lindl., le rosier de Woods.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_du_genre_Rosa</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_du_genre_Rosa</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Sous-genres et sections</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sous-genre Eurosa</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Section Gallicanae</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Gallicanae, rosiers à fleurs rose à pourpre ou panachées d'Asie occidentale et d'Europe,
 Rosa ×alba L. (peut-être Rosa canina × Rosa gallica), le rosier blanc ou rosier d'York,
 Rosa ×centifolia Mill., le rosier cent-feuilles (hybride complexe supposé de Rosa rubra, Rosa phoenicia, Rosa moschata, Rosa canina),
 Rosa ×centifolia f. muscosa (Mill.) Ser., le rosier mousseux,
 Rosa ×damascena L. (Rosa moschata × Rosa gallica) × Rosa fedtschenkoana), le rosier de Damas,
 Rosa gallica L., le rosier de France ou rosier de Provins,
-Rosa ×waitziana nothovar. macrantha (=Rosa ×macrantha N.H.F.Desp.)
-Section Gymnocarpae
-Gymnocarpae, petit groupe d'espèces se différenciant par le réceptacle caduc sur le fruit ; une espèce vient d'Amérique du Nord (Rosa gymnocarpa), les autres d'Asie orientale,
+Rosa ×waitziana nothovar. macrantha (=Rosa ×macrantha N.H.F.Desp.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_du_genre_Rosa</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_du_genre_Rosa</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Sous-genres et sections</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sous-genre Eurosa</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Section Gymnocarpae</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Gymnocarpae, petit groupe d'espèces se différenciant par le réceptacle caduc sur le fruit ; une espèce vient d'Amérique du Nord (Rosa gymnocarpa), les autres d'Asie orientale,
 Rosa beggeriana Schrenk,
 Rosa gymnocarpa Nutt.,
-Rosa willmottiae Hemsl.
-Section Laevigatae
-Laevigatae, une seule espèce à fleurs blanches originaire de Chine,
+Rosa willmottiae Hemsl.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_du_genre_Rosa</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_du_genre_Rosa</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Sous-genres et sections</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sous-genre Eurosa</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Section Laevigatae</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Laevigatae, une seule espèce à fleurs blanches originaire de Chine,
 Rosa laevigata Michx.(synonyme Rosa sinica L.), le rosier des Cherokees.
-Rosa sinica L., voir Rosa laevigata.
-Section Pimpinellifoliae
-Pimpinellifoliae, rosiers à fleurs blanches, roses, jaune brillant, mauves et rose panaché d'Asie et d'Europe,
+Rosa sinica L., voir Rosa laevigata.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_du_genre_Rosa</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_du_genre_Rosa</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Sous-genres et sections</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sous-genre Eurosa</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Section Pimpinellifoliae</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Pimpinellifoliae, rosiers à fleurs blanches, roses, jaune brillant, mauves et rose panaché d'Asie et d'Europe,
 Rosa ecae Aitch. (synonyme Rosa xanthina var. ecae)
 Rosa foetida Herrm. (synonyme Rosa lutea Mill.), le rosier fétide ou ronce d'Autriche
 Rosa hemisphaerica Herrm. (synonyme Rosa sulphurea Aiton), rosier des Turcs,
@@ -627,9 +1056,47 @@
 Rosa sericea Lindl., le rosier soyeux,
 Rosa spinosissima, voir Rosa pimpinellifolia,
 Rosa sulphurea Aiton, voir Rosa hemisphaerica,
-Rosa xanthina Lindl., le rosier de Mandchourie.
-Section Synstylae
-Synstylae, rosiers à fleurs blanches, roses et pourpres de toute l'aire de diffusion du genre.
+Rosa xanthina Lindl., le rosier de Mandchourie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_du_genre_Rosa</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_du_genre_Rosa</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Sous-genres et sections</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sous-genre Eurosa</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Section Synstylae</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Synstylae, rosiers à fleurs blanches, roses et pourpres de toute l'aire de diffusion du genre.
 Rosa arvensis Huds, le rosier des champs,
 Rosa ×beanii (= Rosa anemoneflora)
 Rosa brunonii Lindl., Himalayan Musk Rose, Brown's Musk Rose
@@ -645,20 +1112,157 @@
 Rosa sempervirens, le rosier toujours vert,
 Rosa setigera - Prairie Rose
 Rosa soulieana
-Rosa wichuraiana Crép., voir Rosa luciae.
-Sous-genre Hesperhodos
-Hesperhodos (du grec signifiant « rosier de l'ouest ») contient deux espèces, toutes deux originaires du sud-ouest de l'Amérique du Nord;
+Rosa wichuraiana Crép., voir Rosa luciae.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_du_genre_Rosa</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_du_genre_Rosa</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Sous-genres et sections</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Sous-genre Hesperhodos</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Hesperhodos (du grec signifiant « rosier de l'ouest ») contient deux espèces, toutes deux originaires du sud-ouest de l'Amérique du Nord;
 Rosa minutifolia Engelm., le rosier à petite feuilles (espèce rare en danger d'extinction),
 Rosa stellata Wooton, le rosier de Sacramento,
-Rosa stellata var. mirifica (Greene) W. H. Lewis.
-Sous-genre Hulthemosa
-Hulthemosa (anciennement Simplicifoliae, signifiant « à feuilles simples ») contenant une ou deux espèces du sud-ouest de l'Asie, Rosa persica et Rosa berberifolia (synonyme Rosa persica var. berberifolia), les seules espèces de Rosa qui n'ont ni feuilles composées ni stipules ;
+Rosa stellata var. mirifica (Greene) W. H. Lewis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_du_genre_Rosa</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_du_genre_Rosa</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Sous-genres et sections</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Sous-genre Hulthemosa</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Hulthemosa (anciennement Simplicifoliae, signifiant « à feuilles simples ») contenant une ou deux espèces du sud-ouest de l'Asie, Rosa persica et Rosa berberifolia (synonyme Rosa persica var. berberifolia), les seules espèces de Rosa qui n'ont ni feuilles composées ni stipules ;
 Rosa persica J.F.Gmel. (syn. Hulthemia persica Bornm., Rosa simplicifolia Salisb.)
-Rosa simplicifolia  Salisb., voir Rosa persica.
-Sous-genre Platyrhodon
-Platyrhodon (du grec signifiant « rosier écailleux », en référence à l'écorce desquamée) avec une seule espèce d'Asie orientale, Rosa roxburghii Tratt., le rosier châtaigne.
-Hybrides
-La majorité de ces espèces peuvent s'hybrider naturellement ou artificiellement (grâce aux rosiéristes). Sont nées alors de nouvelles classes et sous-classes de rosiers telles que par exemple :
+Rosa simplicifolia  Salisb., voir Rosa persica.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_du_genre_Rosa</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_du_genre_Rosa</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Sous-genres et sections</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Sous-genre Platyrhodon</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Platyrhodon (du grec signifiant « rosier écailleux », en référence à l'écorce desquamée) avec une seule espèce d'Asie orientale, Rosa roxburghii Tratt., le rosier châtaigne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_du_genre_Rosa</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_du_genre_Rosa</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Sous-genres et sections</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Hybrides</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La majorité de ces espèces peuvent s'hybrider naturellement ou artificiellement (grâce aux rosiéristes). Sont nées alors de nouvelles classes et sous-classes de rosiers telles que par exemple :
 le rosier polyantha issu du croisement de rosa multiflora avec rosa chinensis,
 le rosier de Damas (Rosa ×damascena) issu du croisement de Rosa gallica, Rosa moschata et Rosa fedtschenkoana
 le rosier Noisette issu du croisement de rosa moschata avec rosa chinensis
